--- a/expenses-template.xlsx
+++ b/expenses-template.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8400e53c383ccc98/Documents/ExpenseWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{91D0A7B5-C430-4DD6-84C9-F8C1114AA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C081136F-59D0-4F8A-8230-D0A938ABA04B}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{91D0A7B5-C430-4DD6-84C9-F8C1114AA991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C059A962-08B7-4DCB-959D-C7DF7F932138}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>titled "Totals", where you can also budget your finances. Here are your entered forms:</t>
+  </si>
+  <si>
+    <t>Summary:</t>
+  </si>
+  <si>
+    <t>Food/Drink</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -168,11 +189,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -186,10 +208,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -231,6 +255,1846 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Totals (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2985627734033246"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.40287467191601051"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5F55-43D8-B429-B713B072B561}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5F55-43D8-B429-B713B072B561}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5F55-43D8-B429-B713B072B561}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5F55-43D8-B429-B713B072B561}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5F55-43D8-B429-B713B072B561}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Totals!$L$15:$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Food/Drink</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totals!$M$15:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4483-4100-8331-62BE06F65D88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Totals ($)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36155105290501921"/>
+          <c:y val="0.23813804173354738"/>
+          <c:w val="0.29060799276697097"/>
+          <c:h val="0.54436521277536942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Totals!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Food/Drink</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shopping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totals!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CD4-473D-BCB1-D25DD092B748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41274</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBAAE4B-E68E-C413-10A8-AFF5530692D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28327ED-7724-30D3-E64B-BDE8DD1EE0AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,7 +2419,9 @@
     <col min="3" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" style="9" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="14" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="14" width="10.26953125" customWidth="1"/>
     <col min="15" max="104" width="11.26953125" customWidth="1"/>
     <col min="105" max="1004" width="12.26953125" customWidth="1"/>
     <col min="1005" max="10004" width="13.26953125" customWidth="1"/>
@@ -624,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,7 +2502,7 @@
     <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -651,7 +2517,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -673,15 +2539,18 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
         <f>SUM(
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Food/Drink"),
-  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Entertainment"),
+  SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Entertainment"), SUMIFS(Expenses!D2:D996, Expenses!B2:B996, "Shopping"),
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Utilities"),
   SUMIFS(Expenses!D2:D996,Expenses!B2:B996, "Other")
 )</f>
@@ -701,8 +2570,15 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="9">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Food/Drink")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -724,8 +2600,15 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="9">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Entertainment")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -742,8 +2625,15 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Health")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -760,18 +2650,85 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="9">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Shopping")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="9">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Other")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Food/Drink")/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Entertainment")/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Health")/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Shopping")/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="13">
+        <f>SUMIFS(Expenses!D4:D1000, Expenses!B4:B1000, "Other")/100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>